--- a/biology/Biologie cellulaire et moléculaire/Azoréductase/Azoréductase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Azoréductase/Azoréductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azor%C3%A9ductase</t>
+          <t>Azoréductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'azoréductase est une enzyme de la famille des oxydoréductases admise sous le code E.C 1.7.1.6 par l'Enzyme Commission E.C[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'azoréductase est une enzyme de la famille des oxydoréductases admise sous le code E.C 1.7.1.6 par l'Enzyme Commission E.C.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azor%C3%A9ductase</t>
+          <t>Azoréductase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azor%C3%A9ductase</t>
+          <t>Azoréductase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Nom systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom systématique de l'azoréductase est N,N-dimethyl-1,4-phenylenediamine, aniline:NADP+ oxydoreductase[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom systématique de l'azoréductase est N,N-dimethyl-1,4-phenylenediamine, aniline:NADP+ oxydoreductase.
 </t>
         </is>
       </c>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azor%C3%A9ductase</t>
+          <t>Azoréductase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Étude et Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'azoréductase est une enzyme qui est largement étudiée car elle pourrait être intéressante afin de procéder au traitement biologique des eaux polluées par certains colorants[2] (notamment les colorants de l'industrie du textile).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'azoréductase est une enzyme qui est largement étudiée car elle pourrait être intéressante afin de procéder au traitement biologique des eaux polluées par certains colorants (notamment les colorants de l'industrie du textile).
 En effet, certains colorants sont appelés colorants azoïques dus à la présence d'une liaison azoïque (R-N=N-R') dans la molécule de colorant (par exemple l'hélianthine).
 </t>
         </is>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azor%C3%A9ductase</t>
+          <t>Azoréductase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,9 +618,11 @@
           <t>Réaction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'azoréductase catalyse la réaction suivante[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'azoréductase catalyse la réaction suivante :
           N
           ,
           N
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azor%C3%A9ductase</t>
+          <t>Azoréductase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,9 +684,11 @@
           <t>Présence chez les micro-organismes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon de plus ou moins récentes études, certains micro-organismes posséderaient cette enzyme (par exemple Saccharomyces Cerevisiae)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon de plus ou moins récentes études, certains micro-organismes posséderaient cette enzyme (par exemple Saccharomyces Cerevisiae).
 </t>
         </is>
       </c>
